--- a/data/en-us/achievement.xlsx
+++ b/data/en-us/achievement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/my-life-game/data/en-us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC10DD-FEBD-40DD-BE70-A5B09C378171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B7B49-C8DF-9240-A985-035BAC0481AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement" sheetId="1" r:id="rId1"/>
@@ -2120,11 +2120,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2137,7 +2137,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2222,7 +2222,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2503,25 +2503,25 @@
   <dimension ref="A1:M168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="25.5" style="5"/>
     <col min="2" max="2" width="27.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="33" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="56.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" style="5" customWidth="1"/>
     <col min="8" max="10" width="13.5" style="5" customWidth="1"/>
-    <col min="11" max="13" width="18.875" style="6" customWidth="1"/>
+    <col min="11" max="13" width="18.83203125" style="6" customWidth="1"/>
     <col min="14" max="16384" width="25.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="39.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="109.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="110" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="39.5" customHeight="1">
       <c r="A3" s="5">
         <v>101</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="39.5" customHeight="1">
       <c r="A4" s="5">
         <v>102</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="39.5" customHeight="1">
       <c r="A5" s="5">
         <v>103</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="39.5" customHeight="1">
       <c r="A6" s="5">
         <v>104</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="39.5" customHeight="1">
       <c r="A7" s="5">
         <v>105</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="39.5" customHeight="1">
       <c r="A8" s="5">
         <v>106</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="39.5" customHeight="1">
       <c r="A9" s="5">
         <v>107</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="39.5" customHeight="1">
       <c r="A10" s="5">
         <v>108</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="39.5" customHeight="1">
       <c r="A11" s="5">
         <v>109</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="39.5" customHeight="1">
       <c r="A12" s="5">
         <v>110</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="39.5" customHeight="1">
       <c r="A13" s="5">
         <v>111</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="39.5" customHeight="1">
       <c r="A14" s="5">
         <v>112</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="39.5" customHeight="1">
       <c r="A15" s="5">
         <v>113</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="39.5" customHeight="1">
       <c r="A16" s="5">
         <v>114</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="39.5" customHeight="1">
       <c r="A17" s="5">
         <v>115</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="39.5" customHeight="1">
       <c r="A18" s="5">
         <v>116</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="39.5" customHeight="1">
       <c r="A19" s="5">
         <v>117</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="39.5" customHeight="1">
       <c r="A20" s="5">
         <v>118</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="39.5" customHeight="1">
       <c r="A21" s="5">
         <v>119</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="39.5" customHeight="1">
       <c r="A22" s="5">
         <v>120</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="39.5" customHeight="1">
       <c r="A23" s="5">
         <v>121</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="39.5" customHeight="1">
       <c r="A24" s="5">
         <v>122</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="39.5" customHeight="1">
       <c r="A25" s="5">
         <v>123</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="39.5" customHeight="1">
       <c r="A26" s="5">
         <v>124</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="39.5" customHeight="1">
       <c r="A27" s="5">
         <v>125</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="39.5" customHeight="1">
       <c r="A28" s="5">
         <v>126</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="39.5" customHeight="1">
       <c r="A29" s="5">
         <v>127</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="39.5" customHeight="1">
       <c r="A30" s="5">
         <v>128</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="39.5" customHeight="1">
       <c r="A31" s="5">
         <v>129</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="39.5" customHeight="1">
       <c r="A32" s="5">
         <v>130</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="39.5" customHeight="1">
       <c r="A33" s="5">
         <v>131</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="39.5" customHeight="1">
       <c r="A34" s="5">
         <v>132</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="39.5" customHeight="1">
       <c r="A35" s="5">
         <v>133</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="39.5" customHeight="1">
       <c r="A36" s="5">
         <v>134</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="39.5" customHeight="1">
       <c r="A37" s="5">
         <v>135</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="39.5" customHeight="1">
       <c r="A38" s="5">
         <v>136</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="39.5" customHeight="1">
       <c r="A39" s="5">
         <v>137</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="39.5" customHeight="1">
       <c r="A40" s="5">
         <v>138</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="39.5" customHeight="1">
       <c r="A41" s="5">
         <v>139</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="39.5" customHeight="1">
       <c r="A42" s="5">
         <v>140</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="39.5" customHeight="1">
       <c r="A43" s="5">
         <v>141</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="39.5" customHeight="1">
       <c r="A44" s="5">
         <v>142</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="39.5" customHeight="1">
       <c r="A45" s="5">
         <v>143</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="39.5" customHeight="1">
       <c r="A46" s="5">
         <v>144</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="39.5" customHeight="1">
       <c r="A47" s="5">
         <v>145</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="39.5" customHeight="1">
       <c r="A48" s="5">
         <v>146</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="39.5" customHeight="1">
       <c r="A49" s="5">
         <v>147</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="39.5" customHeight="1">
       <c r="A50" s="5">
         <v>148</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="39.5" customHeight="1">
       <c r="A51" s="5">
         <v>149</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="39.5" customHeight="1">
       <c r="A52" s="5">
         <v>150</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="39.5" customHeight="1">
       <c r="A53" s="5">
         <v>151</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="39.5" customHeight="1">
       <c r="A54" s="5">
         <v>152</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="39.5" customHeight="1">
       <c r="A55" s="5">
         <v>153</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="39.5" customHeight="1">
       <c r="A56" s="5">
         <v>154</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="39.5" customHeight="1">
       <c r="A57" s="5">
         <v>155</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="39.5" customHeight="1">
       <c r="A58" s="5">
         <v>156</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="39.5" customHeight="1">
       <c r="A59" s="5">
         <v>157</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="39.5" customHeight="1">
       <c r="A60" s="5">
         <v>158</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="39.5" customHeight="1">
       <c r="A61" s="5">
         <v>159</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="39.5" customHeight="1">
       <c r="A62" s="5">
         <v>160</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="39.5" customHeight="1">
       <c r="A63" s="5">
         <v>161</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="39.5" customHeight="1">
       <c r="A64" s="5">
         <v>162</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="39.5" customHeight="1">
       <c r="A65" s="5">
         <v>163</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="39.5" customHeight="1">
       <c r="A66" s="5">
         <v>164</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="39.5" customHeight="1">
       <c r="A67" s="5">
         <v>165</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="39.5" customHeight="1">
       <c r="A68" s="5">
         <v>166</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="39.5" customHeight="1">
       <c r="A69" s="5">
         <v>167</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="39.5" customHeight="1">
       <c r="A70" s="5">
         <v>168</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="39.5" customHeight="1">
       <c r="A71" s="5">
         <v>169</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="39.5" customHeight="1">
       <c r="A72" s="5">
         <v>170</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="39.5" customHeight="1">
       <c r="A73" s="5">
         <v>171</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="39.5" customHeight="1">
       <c r="A74" s="5">
         <v>172</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="39.5" customHeight="1">
       <c r="A75" s="5">
         <v>173</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="39.5" customHeight="1">
       <c r="A76" s="5">
         <v>174</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="39.5" customHeight="1">
       <c r="A77" s="5">
         <v>175</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="39.5" customHeight="1">
       <c r="A78" s="5">
         <v>176</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="39.5" customHeight="1">
       <c r="A79" s="5">
         <v>177</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="39.5" customHeight="1">
       <c r="A80" s="5">
         <v>178</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="39.5" customHeight="1">
       <c r="A81" s="5">
         <v>179</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="39.5" customHeight="1">
       <c r="A82" s="5">
         <v>180</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="39.5" customHeight="1">
       <c r="A83" s="5">
         <v>181</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="39.5" customHeight="1">
       <c r="A84" s="5">
         <v>182</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="39.5" customHeight="1">
       <c r="A85" s="5">
         <v>183</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="39.5" customHeight="1">
       <c r="A86" s="5">
         <v>184</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="39.5" customHeight="1">
       <c r="A87" s="5">
         <v>185</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="39.5" customHeight="1">
       <c r="A88" s="5">
         <v>186</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="39.5" customHeight="1">
       <c r="A89" s="5">
         <v>187</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="39.5" customHeight="1">
       <c r="A90" s="5">
         <v>188</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="39.5" customHeight="1">
       <c r="A91" s="5">
         <v>189</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="39.5" customHeight="1">
       <c r="A92" s="5">
         <v>190</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="39.5" customHeight="1">
       <c r="A93" s="5">
         <v>191</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="39.5" customHeight="1">
       <c r="A94" s="5">
         <v>192</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="39.5" customHeight="1">
       <c r="A95" s="5">
         <v>193</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="39.5" customHeight="1">
       <c r="A96" s="5">
         <v>194</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="39.5" customHeight="1">
       <c r="A97" s="5">
         <v>195</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="39.5" customHeight="1">
       <c r="A98" s="5">
         <v>196</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="39.5" customHeight="1">
       <c r="A99" s="5">
         <v>197</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="39.5" customHeight="1">
       <c r="A100" s="5">
         <v>198</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="39.5" customHeight="1">
       <c r="A101" s="5">
         <v>199</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="39.5" customHeight="1">
       <c r="A102" s="5">
         <v>200</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="39.5" customHeight="1">
       <c r="A103" s="5">
         <v>201</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="39.5" customHeight="1">
       <c r="A104" s="5">
         <v>202</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="39.5" customHeight="1">
       <c r="A105" s="5">
         <v>203</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="39.5" customHeight="1">
       <c r="A106" s="5">
         <v>204</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="39.5" customHeight="1">
       <c r="A107" s="5">
         <v>205</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="39.5" customHeight="1">
       <c r="A108" s="5">
         <v>206</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="39.5" customHeight="1">
       <c r="A109" s="5">
         <v>207</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="39.5" customHeight="1">
       <c r="A110" s="5">
         <v>208</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="39.5" customHeight="1">
       <c r="A111" s="5">
         <v>209</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="39.5" customHeight="1">
       <c r="A112" s="5">
         <v>210</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="39.5" customHeight="1">
       <c r="A113" s="5">
         <v>211</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="39.5" customHeight="1">
       <c r="A114" s="5">
         <v>212</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="39.5" customHeight="1">
       <c r="A115" s="5">
         <v>213</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="39.5" customHeight="1">
       <c r="A116" s="5">
         <v>214</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="39.5" customHeight="1">
       <c r="A117" s="5">
         <v>215</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="39.5" customHeight="1">
       <c r="A118" s="5">
         <v>216</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="39.5" customHeight="1">
       <c r="A119" s="5">
         <v>217</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="39.5" customHeight="1">
       <c r="A120" s="5">
         <v>218</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="39.5" customHeight="1">
       <c r="A121" s="5">
         <v>219</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="39.5" customHeight="1">
       <c r="A122" s="5">
         <v>220</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="39.5" customHeight="1">
       <c r="A123" s="5">
         <v>221</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="39.5" customHeight="1">
       <c r="A124" s="5">
         <v>222</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="39.5" customHeight="1">
       <c r="A125" s="5">
         <v>223</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="39.5" customHeight="1">
       <c r="A126" s="5">
         <v>224</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="39.5" customHeight="1">
       <c r="A127" s="5">
         <v>225</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="39.5" customHeight="1">
       <c r="A128" s="5">
         <v>226</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="39.5" customHeight="1">
       <c r="A129" s="5">
         <v>227</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="39.5" customHeight="1">
       <c r="A130" s="5">
         <v>228</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="39.5" customHeight="1">
       <c r="A131" s="5">
         <v>229</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="39.5" customHeight="1">
       <c r="A132" s="5">
         <v>230</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="39.5" customHeight="1">
       <c r="A133" s="5">
         <v>231</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="39.5" customHeight="1">
       <c r="A134" s="5">
         <v>232</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="39.5" customHeight="1">
       <c r="A135" s="5">
         <v>233</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="39.5" customHeight="1">
       <c r="A136" s="5">
         <v>234</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="39.5" customHeight="1">
       <c r="A137" s="5">
         <v>235</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="39.5" customHeight="1">
       <c r="A138" s="5">
         <v>236</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="39.5" customHeight="1">
       <c r="A139" s="5">
         <v>237</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="39.5" customHeight="1">
       <c r="A140" s="5">
         <v>238</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="39.5" customHeight="1">
       <c r="A141" s="5">
         <v>239</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="39.5" customHeight="1">
       <c r="A142" s="5">
         <v>240</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="39.5" customHeight="1">
       <c r="A143" s="5">
         <v>241</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="39.5" customHeight="1">
       <c r="A144" s="5">
         <v>242</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="39.5" customHeight="1">
       <c r="A145" s="5">
         <v>243</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="39.5" customHeight="1">
       <c r="A146" s="5">
         <v>244</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="39.5" customHeight="1">
       <c r="A147" s="5">
         <v>245</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="39.5" customHeight="1">
       <c r="A148" s="5">
         <v>246</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="39.5" customHeight="1">
       <c r="A149" s="5">
         <v>247</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="39.5" customHeight="1">
       <c r="A150" s="5">
         <v>248</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="39.5" customHeight="1">
       <c r="A151" s="5">
         <v>249</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="39.5" customHeight="1">
       <c r="A152" s="5">
         <v>250</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="39.5" customHeight="1">
       <c r="A153" s="5">
         <v>251</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="39.5" customHeight="1">
       <c r="A154" s="5">
         <v>252</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="39.5" customHeight="1">
       <c r="A155" s="5">
         <v>253</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="39.5" customHeight="1">
       <c r="A156" s="5">
         <v>254</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="39.5" customHeight="1">
       <c r="A157" s="5">
         <v>255</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="39.5" customHeight="1">
       <c r="A158" s="5">
         <v>256</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="39.5" customHeight="1">
       <c r="A159" s="5">
         <v>257</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="39.5" customHeight="1">
       <c r="A160" s="5">
         <v>258</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="39.5" customHeight="1">
       <c r="A161" s="5">
         <v>259</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="39.5" customHeight="1">
       <c r="A162" s="5">
         <v>260</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="39.5" customHeight="1">
       <c r="A163" s="5">
         <v>261</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="39.5" customHeight="1">
       <c r="A164" s="5">
         <v>262</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="39.5" customHeight="1">
       <c r="A165" s="5">
         <v>263</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="39.5" customHeight="1">
       <c r="A166" s="5">
         <v>264</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="39.5" customHeight="1">
       <c r="A167" s="5">
         <v>265</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="39.5" customHeight="1">
       <c r="E168" s="5"/>
     </row>
   </sheetData>

--- a/data/en-us/achievement.xlsx
+++ b/data/en-us/achievement.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/my-life-game/data/en-us/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B7B49-C8DF-9240-A985-035BAC0481AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06EABC13-1E22-1D4E-A1F9-D758B78C952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,7 +47,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -46,16 +57,126 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-0：白色
-1：蓝色
-2：紫色
-3：橙色</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：白色</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：蓝色</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：紫色</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：橙色</t>
         </r>
       </text>
     </comment>
@@ -64,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="807">
   <si>
     <t>$id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,10 +211,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>倾城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成就名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -134,10 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>既视感</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>是否隐藏成就</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -146,10 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所有人都是我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>活到80岁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,10 +271,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>活到500岁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>老了老了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,66 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>劫难</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞升仙界</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚假的天空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟出天道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[20367]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界一心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世后飞升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[11219])&amp;(EVT?[20409])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转世后被车撞死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒霉修士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[20382]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟透马克思主义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>革命家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>学会魔法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,22 +295,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被玉佩救一命</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迷信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>智力大于10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>颜值大于10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>体质大于10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -274,98 +307,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快乐大于10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天才</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资本家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无忧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>颜值大于12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力大于12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质大于12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家境大于12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐大于12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首富</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>倾国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命运钟爱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质大于2500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快乐大于20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜值大于20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下凡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无我</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力大于1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>道祖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[20007]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,10 +327,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>随父母进城务工</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10025]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -394,30 +335,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被绑架了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10031]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[20037]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们是冠军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为你才是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上王者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[20055]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -450,10 +371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>社会悲剧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10068]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -466,14 +383,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嫁给程序员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了生活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10088]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -482,14 +391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被外星人抓走</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天外来客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10110]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -525,10 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>门萨会员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>彩票中奖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -557,10 +454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>多次电竞夺冠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>夺得奥运金牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -600,10 +493,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>被黑社会打死</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>莽撞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -620,10 +509,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当上村委书记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10265]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -640,14 +525,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡梦中离世</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>安详</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -656,10 +533,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>去西藏和夏威夷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10315]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -668,54 +541,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>山海经</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>卧床</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[20343]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到小师妹戒指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>落泪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成为亲传弟子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖孽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10360]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>反杀元婴大能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌控混沌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>悟出混沌大道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[20410]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -732,22 +561,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>购买一份大脑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃啥补啥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10425]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>见证9级地震</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>天灾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -755,38 +572,6 @@
     <t>EVT?[10426]</t>
   </si>
   <si>
-    <t>见证台湾回归</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伟大时刻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10437]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>见证新冠清零</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>告一段落</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>川建国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特朗普革命成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10452])&amp;(EVT?[10460])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>二等奖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -826,26 +611,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>速通玩家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>你活了0岁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[10512]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学会西班牙语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斗牛士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爆头</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -862,26 +631,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是人吗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[20576]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[20529]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唱歌比赛第一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小歌星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[20557]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -890,18 +643,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小天文家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学会日语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>霓虹人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10573]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -926,30 +667,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>未名湖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上了北大</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10587,11072,11074]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上了哈佛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[11070,10580,20580]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10602]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -966,26 +683,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成为世界首富</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>人生赢家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[10582]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上了MIT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[20647]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1022,30 +723,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得诺贝尔奖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巅峰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10679,10680,10681]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10715]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现大统一模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇宙真理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>女权主义</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1062,18 +739,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[10789]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开挂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>捡到破碎仙器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>响应号召</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1098,10 +763,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[10569,10891]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10954]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1173,14 +834,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黑暗料理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>品尝任意怪食物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[11017,11018,11019,11020,11030,11032,11033,11034]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1189,10 +842,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>夺得奥赛金牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>众神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1229,10 +878,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>为公</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[11143]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1321,26 +966,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>电力免费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限能源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[11274]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你在大脑植入芯片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[11289]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1369,22 +998,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>见证我国共产</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[11299]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>世界毁于核战争</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>废土</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1433,10 +1050,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>记忆呢？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[11374]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1533,10 +1146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(AEVT?[10644])&amp;(AEVT?[10732,10299])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(AEVT?[10696])&amp;(AEVT?[11462])</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1553,18 +1162,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>归乡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10578,10682]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>美籍出身回国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[11311]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1593,18 +1194,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>颜值小于0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>智力小于0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快乐小于0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>生不如死</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1629,18 +1222,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>颜值小于-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>智力小于-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快乐小于-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不会没死吧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1657,10 +1242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>绝望</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LMNY&lt;-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1713,10 +1294,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>圣骑士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Rewrite</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1733,10 +1310,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HAGE&gt;499</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HCHR&gt;10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1754,45 +1327,6 @@
   </si>
   <si>
     <t>HSPR&gt;10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHR&gt;12</t>
-  </si>
-  <si>
-    <t>HINT&gt;12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSTR&gt;12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HMNY&gt;12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSPR&gt;12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSTR&gt;2500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSPR&gt;20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HCHR&gt;20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HINT&gt;1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟婆愁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1852,58 +1386,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大能者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>虫洞</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[20348,40015]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10388,40036]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40001]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太古仙传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>突破到净息境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40033]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被夺舍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕裂世界之壁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40040]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>破碎虚空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无上存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SUM&lt;0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1912,18 +1398,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不祥之胎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总评超过10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUM&gt;10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总评超过4000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1932,62 +1406,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(EVT?[10409,40050])&amp;(EVT?[20409])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10409,40050]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登仙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到羽化境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40050]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>踏入凡尘期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到星尘境</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>千世</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>星生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40056]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40058]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40061]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到自己留下的法门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前前前世</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>按下某个按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2012,34 +1430,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>嫁衣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是我的了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夺舍成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40083,40084]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孽魂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被炼进魂幡里</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40070]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[11468,11469,20390]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2068,30 +1458,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TLT?[2036]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自 投 罗 网</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经 典 老 歌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集齐四大悲剧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>莎比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(ATLT?[2028])&amp;(ATLT?[2029])&amp;(ATLT?[2030])&amp;(ATLT?[2031])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>死了但没完全死</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2108,19 +1474,1467 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>看到某条摆烂消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟婆愁</t>
+  </si>
+  <si>
+    <t>都市活历史</t>
+  </si>
+  <si>
+    <t>运气大于10</t>
+  </si>
+  <si>
+    <t>运气小于0</t>
+  </si>
+  <si>
+    <t>运气小于-2</t>
+  </si>
+  <si>
+    <t>精神力大于10</t>
+  </si>
+  <si>
+    <t>精神力小于0</t>
+  </si>
+  <si>
+    <t>精神力小于-2</t>
+  </si>
+  <si>
+    <t>海生的一生之敌</t>
+  </si>
+  <si>
+    <t>烟霾之主</t>
+  </si>
+  <si>
+    <t>殷红迷雾</t>
+  </si>
+  <si>
+    <t>立足</t>
+  </si>
+  <si>
+    <t>海生的膜拜</t>
+  </si>
+  <si>
+    <t>体质大于19</t>
+  </si>
+  <si>
+    <t>百善</t>
+  </si>
+  <si>
+    <t>智力大于19</t>
+  </si>
+  <si>
+    <t>HSTR&gt;19</t>
+  </si>
+  <si>
+    <t>HINT&gt;19</t>
+  </si>
+  <si>
+    <t>运气大于19</t>
+  </si>
+  <si>
+    <t>HCHR&gt;19</t>
+  </si>
+  <si>
+    <t>精神力大于19</t>
+  </si>
+  <si>
+    <t>HSPR&gt;19</t>
+  </si>
+  <si>
+    <t>随父母搬进了巢</t>
+  </si>
+  <si>
+    <t>嫁给普通公司职员</t>
+  </si>
+  <si>
+    <t>悲剧</t>
+  </si>
+  <si>
+    <t>被翼抓走</t>
+  </si>
+  <si>
+    <t>被帮派打死</t>
+  </si>
+  <si>
+    <t>当上社区管理员</t>
+  </si>
+  <si>
+    <t>加入世界之翼军队</t>
+  </si>
+  <si>
+    <t>见证9级地震</t>
+  </si>
+  <si>
+    <t>购买美食</t>
+  </si>
+  <si>
+    <t>或许是幸运吧</t>
+  </si>
+  <si>
+    <t>苍蓝残响</t>
+  </si>
+  <si>
+    <t>成为都市首富</t>
+  </si>
+  <si>
+    <t>昂首阔步的信念</t>
+  </si>
+  <si>
+    <t>卓尔不凡的理性</t>
+  </si>
+  <si>
+    <t>愈加善良的希望</t>
+  </si>
+  <si>
+    <t>生存下去的勇气</t>
+  </si>
+  <si>
+    <t>存在意义的憧憬</t>
+  </si>
+  <si>
+    <t>守护他人的决意</t>
+  </si>
+  <si>
+    <t>值得托付的信任</t>
+  </si>
+  <si>
+    <t>直面恐惧，斩断循环</t>
+  </si>
+  <si>
+    <t>拥抱过去，创造未来</t>
+  </si>
+  <si>
+    <t>Ayin</t>
+  </si>
+  <si>
+    <t>终末</t>
+  </si>
+  <si>
+    <t>虚无</t>
+  </si>
+  <si>
+    <t>成为色彩收尾人。</t>
+  </si>
+  <si>
+    <t>自立门户</t>
+  </si>
+  <si>
+    <t>创立一家世界之翼。</t>
+  </si>
+  <si>
+    <t>烟战老兵</t>
+  </si>
+  <si>
+    <t>黑夜</t>
+  </si>
+  <si>
+    <t>白日</t>
+  </si>
+  <si>
+    <t>扭曲</t>
+  </si>
+  <si>
+    <t>神备</t>
+  </si>
+  <si>
+    <t>人生啊，能不能......</t>
+  </si>
+  <si>
+    <t>被车撞死</t>
+  </si>
+  <si>
+    <t>EVT?[11219]</t>
+  </si>
+  <si>
+    <t>被宝玉救一命</t>
+  </si>
+  <si>
+    <t>庇护</t>
+  </si>
+  <si>
+    <t>优秀指挥家</t>
+  </si>
+  <si>
+    <t>天才</t>
+  </si>
+  <si>
+    <t>观星</t>
+  </si>
+  <si>
+    <t>世界毁于战争</t>
+  </si>
+  <si>
+    <t>记忆呢？</t>
+  </si>
+  <si>
+    <t>回归</t>
+  </si>
+  <si>
+    <t>从郊区移民都市</t>
+  </si>
+  <si>
+    <t>绝望</t>
+  </si>
+  <si>
+    <t>上吧，Rocinate！</t>
+  </si>
+  <si>
+    <t>罪</t>
+  </si>
+  <si>
+    <t>被转化为大罪</t>
+  </si>
+  <si>
+    <t>重开1000次</t>
+  </si>
+  <si>
+    <t>TMS&gt;1000</t>
+  </si>
+  <si>
+    <t>你从山东来.....</t>
+  </si>
+  <si>
+    <t>首脑收复郊区</t>
+  </si>
+  <si>
+    <t>EVT?[10681]</t>
+  </si>
+  <si>
+    <t>崩坏的伊始</t>
+  </si>
+  <si>
+    <t>向星星祈祷</t>
+  </si>
+  <si>
+    <t>我这还有俩烟头要不要</t>
+  </si>
+  <si>
+    <t>月之记忆</t>
+  </si>
+  <si>
+    <t>发下头部灵敏度</t>
+  </si>
+  <si>
+    <t>成为血魔</t>
+  </si>
+  <si>
+    <t>获得月之记忆</t>
+  </si>
+  <si>
+    <t>出生在郊区</t>
+  </si>
+  <si>
+    <t>黑暗料理</t>
+  </si>
+  <si>
+    <t>召唤终末鸟</t>
+  </si>
+  <si>
+    <t>召唤虚无之魔法少女</t>
+  </si>
+  <si>
+    <t>组一辈子事务所！</t>
+  </si>
+  <si>
+    <t>触及苍穹</t>
+  </si>
+  <si>
+    <t>成为首脑</t>
+  </si>
+  <si>
+    <t>我想回家</t>
+  </si>
+  <si>
+    <t>上班累死</t>
+  </si>
+  <si>
+    <t>异世界？</t>
+  </si>
+  <si>
+    <t>前往了其他世界</t>
+  </si>
+  <si>
+    <t>入职脑叶公司</t>
+  </si>
+  <si>
+    <t>离开都市</t>
+  </si>
+  <si>
+    <t>完成所有制约</t>
+  </si>
+  <si>
+    <t>纳西索斯</t>
+  </si>
+  <si>
+    <t>色彩</t>
+  </si>
+  <si>
+    <t>EVT?[10299]</t>
+  </si>
+  <si>
+    <t>夕阳</t>
+  </si>
+  <si>
+    <t>看最美丽的落日</t>
+  </si>
+  <si>
     <t>摆烂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>看到某条摆烂消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>典籍守卫</t>
+  </si>
+  <si>
+    <t>大师</t>
+  </si>
+  <si>
+    <t>使用‘望’</t>
+  </si>
+  <si>
+    <t>降罚</t>
+  </si>
+  <si>
+    <t>见证一罪与百善杀死白夜</t>
+  </si>
+  <si>
+    <t>米迦勒</t>
+  </si>
+  <si>
+    <t>战胜白夜</t>
+  </si>
+  <si>
+    <t>大能</t>
+  </si>
+  <si>
+    <t>不祥</t>
+  </si>
+  <si>
+    <t>怎么又是你？</t>
+  </si>
+  <si>
+    <t>再次见证L公司倒塌</t>
+  </si>
+  <si>
+    <t>是的，我回来了</t>
+  </si>
+  <si>
+    <t>见状新L公司</t>
+  </si>
+  <si>
+    <t>上岸</t>
+  </si>
+  <si>
+    <t>wc，冰！</t>
+  </si>
+  <si>
+    <t>都市笑传吃吃冰</t>
+  </si>
+  <si>
+    <t>倦怠的Abel</t>
+  </si>
+  <si>
+    <t>颓废Abram</t>
+  </si>
+  <si>
+    <t>疯狂的Adam</t>
+  </si>
+  <si>
+    <t>完成控制部核心抑制</t>
+  </si>
+  <si>
+    <t>完成情报部核心抑制</t>
+  </si>
+  <si>
+    <t>完成培训部核心抑制</t>
+  </si>
+  <si>
+    <t>完成安保部核心抑制</t>
+  </si>
+  <si>
+    <t>完成中央本部核心抑制</t>
+  </si>
+  <si>
+    <t>完成惩戒部核心抑制</t>
+  </si>
+  <si>
+    <t>完成福利部核心抑制</t>
+  </si>
+  <si>
+    <t>完成研发部核心抑制</t>
+  </si>
+  <si>
+    <t>完成记录部核心抑制</t>
+  </si>
+  <si>
+    <t>阴阳完玉</t>
+  </si>
+  <si>
+    <t>都哥们儿</t>
+  </si>
+  <si>
+    <t>错过</t>
+  </si>
+  <si>
+    <t>我寻思大家都没有啊？</t>
+  </si>
+  <si>
+    <t>召唤‘龙’</t>
+  </si>
+  <si>
+    <t>不是只有你一个人吗？</t>
+  </si>
+  <si>
+    <t>我爱工作，工作爱我</t>
+  </si>
+  <si>
+    <t>*石头记*</t>
+  </si>
+  <si>
+    <t>*打八折的牡蛎壳*</t>
+  </si>
+  <si>
+    <t>*典藏版收尾人周刊*</t>
+  </si>
+  <si>
+    <t>*狼皮大衣*</t>
+  </si>
+  <si>
+    <t>*白干的指挥棒*</t>
+  </si>
+  <si>
+    <t>*𫓯铌钛镁*</t>
+  </si>
+  <si>
+    <t>*限量蛋糕*</t>
+  </si>
+  <si>
+    <t>*火腿砰砰五折券*</t>
+  </si>
+  <si>
+    <t>*真理之书*</t>
+  </si>
+  <si>
+    <t>*色彩的钢笔*</t>
+  </si>
+  <si>
+    <t>*两千年的爱*</t>
+  </si>
+  <si>
+    <t>*钢琴的残响*</t>
+  </si>
+  <si>
+    <t>*残月碎片*</t>
+  </si>
+  <si>
+    <t>*444天加班打卡表*</t>
+  </si>
+  <si>
+    <t>*Khomi发夹*</t>
+  </si>
+  <si>
+    <t>*破布*</t>
+  </si>
+  <si>
+    <t>平平无奇的破布</t>
+  </si>
+  <si>
+    <t>运气+1</t>
+  </si>
+  <si>
+    <t>体质+1</t>
+  </si>
+  <si>
+    <t>可以留给某人</t>
+  </si>
+  <si>
+    <t>买火腿砰砰打五折</t>
+  </si>
+  <si>
+    <t>不合时宜的赠礼</t>
+  </si>
+  <si>
+    <t>不分离</t>
+  </si>
+  <si>
+    <t>收集所有收藏品</t>
+  </si>
+  <si>
+    <t>不会成为大罪</t>
+  </si>
+  <si>
+    <t>诶呀，大意失荆州啊</t>
+  </si>
+  <si>
+    <t>臭棋篓子王</t>
+  </si>
+  <si>
+    <t>卡戎之友</t>
+  </si>
+  <si>
+    <t>全都是我</t>
+  </si>
+  <si>
+    <t>阎王熟</t>
+  </si>
+  <si>
+    <t>倒霉熊之敌</t>
+  </si>
+  <si>
+    <t>小老板</t>
+  </si>
+  <si>
+    <t>最强大脑</t>
+  </si>
+  <si>
+    <t>‘三十而立’</t>
+  </si>
+  <si>
+    <t>体质大于15</t>
+  </si>
+  <si>
+    <t>智力大于15</t>
+  </si>
+  <si>
+    <t>家境大于15</t>
+  </si>
+  <si>
+    <t>带资本家</t>
+  </si>
+  <si>
+    <t>运气大于15</t>
+  </si>
+  <si>
+    <t>精神力大于15</t>
+  </si>
+  <si>
+    <t>得道</t>
+  </si>
+  <si>
+    <t>家境大于19</t>
+  </si>
+  <si>
+    <t>首富</t>
+  </si>
+  <si>
+    <t>HMNY&gt;19</t>
+  </si>
+  <si>
+    <t>HCHR&gt;15</t>
+  </si>
+  <si>
+    <t>HINT&gt;15</t>
+  </si>
+  <si>
+    <t>HSTR&gt;15</t>
+  </si>
+  <si>
+    <t>HMNY&gt;15</t>
+  </si>
+  <si>
+    <t>HSPR&gt;15</t>
+  </si>
+  <si>
+    <t>被绑架</t>
+  </si>
+  <si>
+    <t>常态</t>
+  </si>
+  <si>
+    <t>平安就行</t>
+  </si>
+  <si>
+    <t>在睡梦中离世</t>
+  </si>
+  <si>
+    <t>‘做人’领域大神</t>
+  </si>
+  <si>
+    <t>（orphan help orphan）</t>
+  </si>
+  <si>
+    <t>OHO</t>
+  </si>
+  <si>
+    <t>*被啃过的红苹果*</t>
+  </si>
+  <si>
+    <t>Faker</t>
+  </si>
+  <si>
+    <t>折棒</t>
+  </si>
+  <si>
+    <t>最强之人</t>
+  </si>
+  <si>
+    <t>独战血雾</t>
+  </si>
+  <si>
+    <t>主宰</t>
+  </si>
+  <si>
+    <t>独战首脑</t>
+  </si>
+  <si>
+    <t>真正的月记！</t>
+  </si>
+  <si>
+    <t>赌神</t>
+  </si>
+  <si>
+    <t>围观一场蓝钻赌局</t>
+  </si>
+  <si>
+    <t>通过第47天</t>
+  </si>
+  <si>
+    <t>通过第48天</t>
+  </si>
+  <si>
+    <t>通过第49天</t>
+  </si>
+  <si>
+    <t>通过第50天</t>
+  </si>
+  <si>
+    <t>必定战胜【白夜】</t>
+  </si>
+  <si>
+    <t>开创13协会</t>
+  </si>
+  <si>
+    <t>完成都市之星级委托</t>
+  </si>
+  <si>
+    <t>谢谢你</t>
+  </si>
+  <si>
+    <t>辛苦了</t>
+  </si>
+  <si>
+    <t>自创一派</t>
+  </si>
+  <si>
+    <t>让安吉拉解脱</t>
+  </si>
+  <si>
+    <t>解放安吉拉</t>
+  </si>
+  <si>
+    <t>加班圣体</t>
+  </si>
+  <si>
+    <t>都市真正所需之物</t>
+  </si>
+  <si>
+    <t>微瑕的音律</t>
+  </si>
+  <si>
+    <t>穿这个会让你变酷</t>
+  </si>
+  <si>
+    <t>今朝此日</t>
+  </si>
+  <si>
+    <t>与自己谈恋爱</t>
+  </si>
+  <si>
+    <t>加班狂</t>
+  </si>
+  <si>
+    <t>真不怕大蒜</t>
+  </si>
+  <si>
+    <t>参加烟霾战争</t>
+  </si>
+  <si>
+    <t>放我出去！</t>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <t>愿者上钩</t>
+  </si>
+  <si>
+    <t>让你别碰我了吧</t>
+  </si>
+  <si>
+    <t>制约大师</t>
+  </si>
+  <si>
+    <t>两百岁该咋办？</t>
+  </si>
+  <si>
+    <t>《为政》</t>
+  </si>
+  <si>
+    <t>孤儿</t>
+  </si>
+  <si>
+    <t>光之种从未爆发</t>
+  </si>
+  <si>
+    <t>成为5级员工</t>
+  </si>
+  <si>
+    <t>和所有异想体共鸣</t>
+  </si>
+  <si>
+    <t>色彩之姿</t>
+  </si>
+  <si>
+    <t>独战爪牙</t>
+  </si>
+  <si>
+    <t>水桶</t>
+  </si>
+  <si>
+    <t>一本陈旧的书</t>
+  </si>
+  <si>
+    <t>可以扰乱音乐演出</t>
+  </si>
+  <si>
+    <t>【您能做到的！】</t>
+  </si>
+  <si>
+    <t>【永远忠诚】</t>
+  </si>
+  <si>
+    <t>【应对熔毁】</t>
+  </si>
+  <si>
+    <t>【黄昏将至】</t>
+  </si>
+  <si>
+    <t>【“毒蛇”Yesod】</t>
+  </si>
+  <si>
+    <t>【我们的道路】</t>
+  </si>
+  <si>
+    <t>【它为什么不会腐烂？】</t>
+  </si>
+  <si>
+    <t>【完美的分界】</t>
+  </si>
+  <si>
+    <t>【我想要帮忙】</t>
+  </si>
+  <si>
+    <t>【多余的善良】</t>
+  </si>
+  <si>
+    <t>【我只是想当一个好人】</t>
+  </si>
+  <si>
+    <t>【辅助培训】</t>
+  </si>
+  <si>
+    <t>【昏昏欲睡】</t>
+  </si>
+  <si>
+    <t>【至少放台自动啤酒贩卖机吧？】</t>
+  </si>
+  <si>
+    <t>【一个不可能完成的任务】</t>
+  </si>
+  <si>
+    <t>【效率是最头疼的问题】</t>
+  </si>
+  <si>
+    <t>【证明你的能力I】</t>
+  </si>
+  <si>
+    <t>【证明你的能力II】</t>
+  </si>
+  <si>
+    <t>【证明你的能力III】</t>
+  </si>
+  <si>
+    <t>【证明你的能力IV】</t>
+  </si>
+  <si>
+    <t>【受难的目的I】</t>
+  </si>
+  <si>
+    <t>【受难的目的II】</t>
+  </si>
+  <si>
+    <t>【向我证明你的本事】</t>
+  </si>
+  <si>
+    <t>【我们的工作】</t>
+  </si>
+  <si>
+    <t>【为了今后的工作I】</t>
+  </si>
+  <si>
+    <t>【为了今后的工作II】</t>
+  </si>
+  <si>
+    <t>【为了今后的工作III】</t>
+  </si>
+  <si>
+    <t>【为了今后的工作IV】</t>
+  </si>
+  <si>
+    <t>【提取抽样】</t>
+  </si>
+  <si>
+    <t>【自我的碎片】</t>
+  </si>
+  <si>
+    <t>【自我的外壳】</t>
+  </si>
+  <si>
+    <t>【幻想解放】</t>
+  </si>
+  <si>
+    <t>【守护之美】</t>
+  </si>
+  <si>
+    <t>【统御之美】</t>
+  </si>
+  <si>
+    <t>【创造之美】</t>
+  </si>
+  <si>
+    <t>【灵魂之美】</t>
+  </si>
+  <si>
+    <t>抢回能源</t>
+  </si>
+  <si>
+    <t>立棍</t>
+  </si>
+  <si>
+    <t>得了MVP！</t>
+  </si>
+  <si>
+    <t>活过第一天</t>
+  </si>
+  <si>
+    <t>镇压黎明考验</t>
+  </si>
+  <si>
+    <t>击败黄昏考验</t>
+  </si>
+  <si>
+    <t>活过第五天</t>
+  </si>
+  <si>
+    <t>活过第十天</t>
+  </si>
+  <si>
+    <t>活过第二十天</t>
+  </si>
+  <si>
+    <t>活过第三十天</t>
+  </si>
+  <si>
+    <t>晋升二级员工</t>
+  </si>
+  <si>
+    <t>晋升三级员工</t>
+  </si>
+  <si>
+    <t>晋升四级员工</t>
+  </si>
+  <si>
+    <t>晋升五级员工</t>
+  </si>
+  <si>
+    <t>就职过控制部</t>
+  </si>
+  <si>
+    <t>就职过情报部</t>
+  </si>
+  <si>
+    <t>就职过培训部</t>
+  </si>
+  <si>
+    <t>就职过安保部</t>
+  </si>
+  <si>
+    <t>活过第35天</t>
+  </si>
+  <si>
+    <t>活过第38天</t>
+  </si>
+  <si>
+    <t>活过第46天</t>
+  </si>
+  <si>
+    <t>活过第47天</t>
+  </si>
+  <si>
+    <t>对HE级异想体工作</t>
+  </si>
+  <si>
+    <t>对Teth级异想体工作</t>
+  </si>
+  <si>
+    <t>对Waw级异想体工作</t>
+  </si>
+  <si>
+    <t>对Aleph级异想体工作</t>
+  </si>
+  <si>
+    <t>穿戴Teth级ego</t>
+  </si>
+  <si>
+    <t>穿戴He级ego</t>
+  </si>
+  <si>
+    <t>穿戴Waw级ego</t>
+  </si>
+  <si>
+    <t>穿戴Aleph级ego</t>
+  </si>
+  <si>
+    <t>镇压Waw级异想体</t>
+  </si>
+  <si>
+    <t>镇压Aleph级异想体</t>
+  </si>
+  <si>
+    <t>镇压午夜考验</t>
+  </si>
+  <si>
+    <t>镇压He级异想体</t>
+  </si>
+  <si>
+    <t>花很美</t>
+  </si>
+  <si>
+    <t>化为春泥</t>
+  </si>
+  <si>
+    <t>安眠</t>
+  </si>
+  <si>
+    <t>与虚空之梦共鸣</t>
+  </si>
+  <si>
+    <t>纪念日快乐</t>
+  </si>
+  <si>
+    <t>和妻子度过纪念日</t>
+  </si>
+  <si>
+    <t>我们也要死吗？</t>
+  </si>
+  <si>
+    <t>被拇指肃清</t>
+  </si>
+  <si>
+    <t>秃头真是太棒了！</t>
+  </si>
+  <si>
+    <t>秃了</t>
+  </si>
+  <si>
+    <t>EVT?[80001]</t>
+  </si>
+  <si>
+    <t>EVT?[80002]</t>
+  </si>
+  <si>
+    <t>EVT?[80003]</t>
+  </si>
+  <si>
+    <t>EVT?[80004]</t>
+  </si>
+  <si>
+    <t>EVT?[80005]</t>
+  </si>
+  <si>
+    <t>EVT?[80006]</t>
+  </si>
+  <si>
+    <t>EVT?[80007]</t>
+  </si>
+  <si>
+    <t>EVT?[80008]</t>
+  </si>
+  <si>
+    <t>EVT?[80009]</t>
+  </si>
+  <si>
+    <t>EVT?[80010]</t>
+  </si>
+  <si>
+    <t>EVT?[80011]</t>
+  </si>
+  <si>
+    <t>EVT?[80012]</t>
+  </si>
+  <si>
+    <t>EVT?[80013]</t>
+  </si>
+  <si>
+    <t>EVT?[80014]</t>
+  </si>
+  <si>
+    <t>EVT?[80015]</t>
+  </si>
+  <si>
+    <t>EVT?[80016]</t>
+  </si>
+  <si>
+    <t>EVT?[80017]</t>
+  </si>
+  <si>
+    <t>EVT?[80018]</t>
+  </si>
+  <si>
+    <t>EVT?[80019]</t>
+  </si>
+  <si>
+    <t>EVT?[80020]</t>
+  </si>
+  <si>
+    <t>EVT?[80021]</t>
+  </si>
+  <si>
+    <t>EVT?[80022]</t>
+  </si>
+  <si>
+    <t>EVT?[80023]</t>
+  </si>
+  <si>
+    <t>EVT?[80024]</t>
+  </si>
+  <si>
+    <t>EVT?[80025]</t>
+  </si>
+  <si>
+    <t>EVT?[80026]</t>
+  </si>
+  <si>
+    <t>EVT?[80027]</t>
+  </si>
+  <si>
+    <t>EVT?[80028]</t>
+  </si>
+  <si>
+    <t>EVT?[80029]</t>
+  </si>
+  <si>
+    <t>EVT?[80030]</t>
+  </si>
+  <si>
+    <t>EVT?[80031]</t>
+  </si>
+  <si>
+    <t>EVT?[80032]</t>
+  </si>
+  <si>
+    <t>EVT?[80033]</t>
+  </si>
+  <si>
+    <t>EVT?[80034]</t>
+  </si>
+  <si>
+    <t>EVT?[80035]</t>
+  </si>
+  <si>
+    <t>EVT?[80036]</t>
+  </si>
+  <si>
+    <t>工作达成优</t>
+  </si>
+  <si>
+    <t>体质&gt;7</t>
+  </si>
+  <si>
+    <t>全属性&gt;4</t>
+  </si>
+  <si>
+    <t>智力&gt;7</t>
+  </si>
+  <si>
+    <t>精神力&gt;7</t>
+  </si>
+  <si>
+    <t>续费时长：200年</t>
+  </si>
+  <si>
+    <t>复仇</t>
+  </si>
+  <si>
+    <t>EVT?[70024]</t>
+  </si>
+  <si>
+    <t>EVT?[70025]</t>
+  </si>
+  <si>
+    <t>EVT?[70026]</t>
+  </si>
+  <si>
+    <t>EVT?[70027]</t>
+  </si>
+  <si>
+    <t>EVT?[70028]</t>
+  </si>
+  <si>
+    <t>EVT?[70029]</t>
+  </si>
+  <si>
+    <t>EVT?[70030]</t>
+  </si>
+  <si>
+    <t>EVT?[70031]</t>
+  </si>
+  <si>
+    <t>EVT?[70032]</t>
+  </si>
+  <si>
+    <t>EVT?[70033]</t>
+  </si>
+  <si>
+    <t>EVT?[70034]</t>
+  </si>
+  <si>
+    <t>EVT?[70035]</t>
+  </si>
+  <si>
+    <t>EVT?[70036]</t>
+  </si>
+  <si>
+    <t>EVT?[70037]</t>
+  </si>
+  <si>
+    <t>EVT?[70039]</t>
+  </si>
+  <si>
+    <t>EVT?[70041]</t>
+  </si>
+  <si>
+    <t>EVT?[70040]</t>
+  </si>
+  <si>
+    <t>你过关</t>
+  </si>
+  <si>
+    <t>都市需要善意</t>
+  </si>
+  <si>
+    <t>EVT?[50099]</t>
+  </si>
+  <si>
+    <t>都市一星</t>
+  </si>
+  <si>
+    <t>成为都市之星</t>
+  </si>
+  <si>
+    <t>my treasure!</t>
+  </si>
+  <si>
+    <t>捡到个戒指</t>
+  </si>
+  <si>
+    <t>这都行？</t>
+  </si>
+  <si>
+    <t>必须幸福一百岁！</t>
+  </si>
+  <si>
+    <t>有很多很多朋友！</t>
+  </si>
+  <si>
+    <t>取代【手指】</t>
+  </si>
+  <si>
+    <t>向仇人复仇</t>
+  </si>
+  <si>
+    <t>和解</t>
+  </si>
+  <si>
+    <t>放过仇人</t>
+  </si>
+  <si>
+    <t>这我真喜欢看</t>
+  </si>
+  <si>
+    <t>看了TTYMDY</t>
+  </si>
+  <si>
+    <t>EVT?[50004]</t>
+  </si>
+  <si>
+    <t>EVT?[11505]</t>
+  </si>
+  <si>
+    <t>爆EGO啦老登！</t>
+  </si>
+  <si>
+    <t>破晓</t>
+  </si>
+  <si>
+    <t>镇压白夜</t>
+  </si>
+  <si>
+    <t>镇压终末鸟</t>
+  </si>
+  <si>
+    <t>EVT?[90264,90273,90281]</t>
+  </si>
+  <si>
+    <t>EVT?[90197,90205,90269,90301]</t>
+  </si>
+  <si>
+    <t>EVT?[80039]</t>
+  </si>
+  <si>
+    <t>EVT?[80042]</t>
+  </si>
+  <si>
+    <t>EVT?[80045]</t>
+  </si>
+  <si>
+    <t>EVT?[80048]</t>
+  </si>
+  <si>
+    <t>EVT?[80051]</t>
+  </si>
+  <si>
+    <t>EVT?[80054]</t>
+  </si>
+  <si>
+    <t>EVT?[80057]</t>
+  </si>
+  <si>
+    <t>EVT?[80060]</t>
+  </si>
+  <si>
+    <t>EVT?[80063]</t>
+  </si>
+  <si>
+    <t>EVT?[90320]</t>
+  </si>
+  <si>
+    <t>EVT?[90337]</t>
+  </si>
+  <si>
+    <t>EVT?[90344]</t>
+  </si>
+  <si>
+    <t>一文不值</t>
+  </si>
+  <si>
+    <t>被贬为了文职</t>
+  </si>
+  <si>
+    <t>EVT?[82008]</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>我追上了您吗？</t>
+  </si>
+  <si>
+    <t>99与∞</t>
+  </si>
+  <si>
+    <t>EVT?[50617]</t>
+  </si>
+  <si>
+    <t>功能不明</t>
+  </si>
+  <si>
+    <t>TLT?[1065]</t>
+  </si>
+  <si>
+    <t>到底有什么用?</t>
+  </si>
+  <si>
+    <t>EVT?[50554]</t>
+  </si>
+  <si>
+    <t>EVT?[50481]</t>
+  </si>
+  <si>
+    <t>EVT?[99902]</t>
+  </si>
+  <si>
+    <t>EVT?[99903]</t>
+  </si>
+  <si>
+    <t>EVT?[99905]</t>
+  </si>
+  <si>
+    <t>这还是都市吗？</t>
+  </si>
+  <si>
+    <t>EVT?[10011]</t>
+  </si>
+  <si>
+    <t>EVT?[70023]</t>
+  </si>
+  <si>
+    <t>时间绝不只单向流动</t>
+  </si>
+  <si>
+    <t>EVT?[70043]</t>
+  </si>
+  <si>
+    <t>EVT?[50186]</t>
+  </si>
+  <si>
+    <t>EVT?[60566,60567]</t>
+  </si>
+  <si>
+    <t>EVT?[90038,50186]</t>
+  </si>
+  <si>
+    <t>EVT?[50100]</t>
+  </si>
+  <si>
+    <t>EVT?[50239]</t>
+  </si>
+  <si>
+    <t>EVT?[50487]</t>
+  </si>
+  <si>
+    <t>EVT?[50062]</t>
+  </si>
+  <si>
+    <t>EVT?[50479]</t>
+  </si>
+  <si>
+    <t>EVT?[50480]</t>
+  </si>
+  <si>
+    <t>EVT?[50005]</t>
+  </si>
+  <si>
+    <t>EVT?[50101]</t>
+  </si>
+  <si>
+    <t>EVT?[50789,50790,50791,50792,50793]</t>
+  </si>
+  <si>
+    <t>EVT?[50002]</t>
+  </si>
+  <si>
+    <t>TRAJECTORY</t>
+  </si>
+  <si>
+    <t>EVT?[50577]</t>
+  </si>
+  <si>
+    <t>EVT?[99007]</t>
+  </si>
+  <si>
+    <t>EVT?[50726]</t>
+  </si>
+  <si>
+    <t>EVT?[90346]</t>
+  </si>
+  <si>
+    <t>(EVT?[50101,50245])&amp;(EVT?[10272,50094])</t>
+  </si>
+  <si>
+    <t>EVT?[90319]</t>
+  </si>
+  <si>
+    <t>EVT?[90334]</t>
+  </si>
+  <si>
+    <t>EVT?[90339]</t>
+  </si>
+  <si>
+    <t>EVT?[50685]</t>
+  </si>
+  <si>
+    <t>EVT?[50273]</t>
+  </si>
+  <si>
+    <t>EVT?[50661]</t>
+  </si>
+  <si>
+    <t>EVT?[50542]</t>
+  </si>
+  <si>
+    <t>EVT?[81004]</t>
+  </si>
+  <si>
+    <t>EVT?[90313]</t>
+  </si>
+  <si>
+    <t>EVT?[50172]</t>
+  </si>
+  <si>
+    <t>EVT?[50673]</t>
+  </si>
+  <si>
+    <t>EVT?[50259]</t>
+  </si>
+  <si>
+    <t>EVT?[50319,90021,90232]</t>
+  </si>
+  <si>
+    <t>EVT?[60135]</t>
+  </si>
+  <si>
+    <t>EVT?[50136]</t>
+  </si>
+  <si>
+    <t>EVT?[90125]</t>
+  </si>
+  <si>
+    <t>EVT?[70015]</t>
+  </si>
+  <si>
+    <t>EVT?[50903]</t>
+  </si>
+  <si>
+    <t>(EVT?[50575])&amp;(EVT?[50617])</t>
+  </si>
+  <si>
+    <t>(EVT?[50788])&amp;(TLT?[3013])</t>
+  </si>
+  <si>
+    <t>(EVT?[60607])&amp;(TLT?[1129])</t>
+  </si>
+  <si>
+    <t>EVT?[30002]</t>
+  </si>
+  <si>
+    <t>(ATLT?[3001])&amp;(ATLT?[3002])&amp;(ATLT?[3003])&amp;(ATLT?[3019])</t>
+  </si>
+  <si>
+    <t>(ATLT?[1049])&amp;(ATLT?[1050])&amp;(ATLT?[1051])&amp;(ATLT?[1052])&amp;(ATLT?[1053])</t>
+  </si>
+  <si>
+    <t>(ACHV?[283])&amp;(ACHV?[284])&amp;(ACHV?[285])&amp;(ACHV?[286])&amp;(ACHV?[287])&amp;(ACHV?[288])&amp;(ACHV?[289])&amp;(ACHV?[290])&amp;(ACHV?[291])&amp;(ACHV?[292])&amp;(ACHV?[293])&amp;(ACHV?[294])&amp;(ACHV?[295])&amp;(ACHV?[296])&amp;(ACHV?[297])&amp;(ACHV?[298])</t>
+  </si>
+  <si>
+    <t>EVT?[60842]</t>
+  </si>
+  <si>
+    <t>(AEVT?[70001])&amp;(AEVT?[70002])&amp;(AEVT?[70003])&amp;(AEVT?[70004])&amp;(AEVT?[70005])&amp;(AEVT?[70006])&amp;(AEVT?[70007])&amp;(AEVT?[70008])&amp;(AEVT?[70009])&amp;(AEVT?[70010])&amp;(AEVT?[70012])&amp;(AEVT?[70013])&amp;(AEVT?[70015])&amp;(AEVT?[70016])&amp;(AEVT?[70017])&amp;(AEVT?[70018])&amp;(AEVT?[70019])&amp;(AEVT?[70020])&amp;(AEVT?[70021])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2152,16 +2966,37 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0F1115"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2197,7 +3032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2219,6 +3054,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,11 +3347,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M168"/>
+  <dimension ref="A1:M282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E239" sqref="E239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="21"/>
@@ -2535,13 +3382,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>367</v>
+        <v>240</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>435</v>
+        <v>288</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -2552,22 +3399,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>436</v>
+        <v>289</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2579,22 +3426,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="39.5" customHeight="1">
@@ -2602,22 +3449,22 @@
         <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>433</v>
+        <v>323</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.5" customHeight="1">
@@ -2625,22 +3472,22 @@
         <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>489</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="39.5" customHeight="1">
@@ -2648,22 +3495,22 @@
         <v>104</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>414</v>
+        <v>278</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="39.5" customHeight="1">
@@ -2671,22 +3518,22 @@
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>488</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>393</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>438</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="39.5" customHeight="1">
@@ -2694,22 +3541,22 @@
         <v>106</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="39.5" customHeight="1">
@@ -2717,22 +3564,22 @@
         <v>107</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>417</v>
+        <v>280</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="39.5" customHeight="1">
@@ -2740,22 +3587,22 @@
         <v>108</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="F10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="39.5" customHeight="1">
@@ -2763,22 +3610,22 @@
         <v>109</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>378</v>
       </c>
       <c r="D11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39.5" customHeight="1">
@@ -2786,22 +3633,22 @@
         <v>110</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="39.5" customHeight="1">
@@ -2809,22 +3656,22 @@
         <v>111</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="D13" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>467</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="39.5" customHeight="1">
@@ -2832,22 +3679,22 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>490</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="F14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="39.5" customHeight="1">
@@ -2855,22 +3702,22 @@
         <v>113</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="39.5" customHeight="1">
@@ -2878,22 +3725,22 @@
         <v>114</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39.5" customHeight="1">
@@ -2901,22 +3748,22 @@
         <v>115</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>491</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="F17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39.5" customHeight="1">
@@ -2924,22 +3771,22 @@
         <v>116</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="D18" s="5">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>419</v>
+        <v>286</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39.5" customHeight="1">
@@ -2947,22 +3794,22 @@
         <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>53</v>
+        <v>335</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>498</v>
       </c>
       <c r="D19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>420</v>
+        <v>504</v>
       </c>
       <c r="F19" s="5">
         <v>0</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="39.5" customHeight="1">
@@ -2970,22 +3817,22 @@
         <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>492</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>50</v>
+        <v>495</v>
       </c>
       <c r="D20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>421</v>
+        <v>505</v>
       </c>
       <c r="F20" s="5">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39.5" customHeight="1">
@@ -2993,22 +3840,22 @@
         <v>119</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>493</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>494</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>422</v>
+        <v>506</v>
       </c>
       <c r="F21" s="5">
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39.5" customHeight="1">
@@ -3016,22 +3863,22 @@
         <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>56</v>
+        <v>497</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>496</v>
       </c>
       <c r="D22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
       <c r="F22" s="5">
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39.5" customHeight="1">
@@ -3039,22 +3886,22 @@
         <v>121</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>500</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>499</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>424</v>
+        <v>508</v>
       </c>
       <c r="F23" s="5">
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39.5" customHeight="1">
@@ -3062,22 +3909,22 @@
         <v>122</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>336</v>
       </c>
       <c r="D24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.5" customHeight="1">
@@ -3085,22 +3932,16 @@
         <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>502</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>501</v>
       </c>
       <c r="D25" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="39.5" customHeight="1">
@@ -3108,22 +3949,22 @@
         <v>124</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>337</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>60</v>
+        <v>343</v>
       </c>
       <c r="D26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="F26" s="5">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="39.5" customHeight="1">
@@ -3131,22 +3972,22 @@
         <v>125</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="D27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>428</v>
+        <v>342</v>
       </c>
       <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="39.5" customHeight="1">
@@ -3154,22 +3995,22 @@
         <v>126</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="D28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>429</v>
+        <v>340</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="39.5" customHeight="1">
@@ -3177,22 +4018,22 @@
         <v>127</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D29" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>430</v>
+        <v>31</v>
       </c>
       <c r="F29" s="5">
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="39.5" customHeight="1">
@@ -3200,22 +4041,22 @@
         <v>128</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>69</v>
+        <v>345</v>
       </c>
       <c r="D30" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>431</v>
+        <v>35</v>
       </c>
       <c r="F30" s="5">
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="39.5" customHeight="1">
@@ -3223,22 +4064,22 @@
         <v>129</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>73</v>
+        <v>509</v>
       </c>
       <c r="D31" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="F31" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="39.5" customHeight="1">
@@ -3246,22 +4087,22 @@
         <v>130</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="D32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F32" s="5">
         <v>0</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="39.5" customHeight="1">
@@ -3269,22 +4110,22 @@
         <v>131</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="39.5" customHeight="1">
@@ -3292,22 +4133,22 @@
         <v>132</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>81</v>
+        <v>510</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D34" s="5">
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="39.5" customHeight="1">
@@ -3315,22 +4156,22 @@
         <v>133</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="D35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="39.5" customHeight="1">
@@ -3338,22 +4179,22 @@
         <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>90</v>
+        <v>511</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="D36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="39.5" customHeight="1">
@@ -3361,22 +4202,22 @@
         <v>135</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>93</v>
+        <v>347</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>91</v>
+        <v>348</v>
       </c>
       <c r="D37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="39.5" customHeight="1">
@@ -3384,22 +4225,22 @@
         <v>136</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F38" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="39.5" customHeight="1">
@@ -3407,22 +4248,22 @@
         <v>137</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D39" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="39.5" customHeight="1">
@@ -3430,22 +4271,22 @@
         <v>138</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="39.5" customHeight="1">
@@ -3453,22 +4294,22 @@
         <v>139</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>105</v>
+        <v>383</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="39.5" customHeight="1">
@@ -3476,22 +4317,22 @@
         <v>140</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="39.5" customHeight="1">
@@ -3499,22 +4340,22 @@
         <v>141</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="39.5" customHeight="1">
@@ -3522,22 +4363,20 @@
         <v>142</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="39.5" customHeight="1">
@@ -3545,22 +4384,22 @@
         <v>143</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c r="D45" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="39.5" customHeight="1">
@@ -3568,22 +4407,22 @@
         <v>144</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D46" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="39.5" customHeight="1">
@@ -3591,22 +4430,22 @@
         <v>145</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="D47" s="5">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="39.5" customHeight="1">
@@ -3614,22 +4453,22 @@
         <v>146</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>123</v>
+        <v>349</v>
       </c>
       <c r="D48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="39.5" customHeight="1">
@@ -3637,22 +4476,22 @@
         <v>147</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D49" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="39.5" customHeight="1">
@@ -3660,22 +4499,22 @@
         <v>148</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="D50" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="F50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="39.5" customHeight="1">
@@ -3683,22 +4522,22 @@
         <v>149</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="D51" s="5">
         <v>0</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="39.5" customHeight="1">
@@ -3706,22 +4545,22 @@
         <v>150</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>134</v>
+        <v>512</v>
       </c>
       <c r="D52" s="5">
         <v>0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="39.5" customHeight="1">
@@ -3729,22 +4568,22 @@
         <v>151</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>137</v>
+        <v>423</v>
       </c>
       <c r="D53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>136</v>
+        <v>421</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="39.5" customHeight="1">
@@ -3752,22 +4591,22 @@
         <v>152</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="D54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="39.5" customHeight="1">
@@ -3775,22 +4614,22 @@
         <v>153</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="D55" s="5">
         <v>0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="39.5" customHeight="1">
@@ -3798,22 +4637,22 @@
         <v>154</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>146</v>
+        <v>513</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>145</v>
+        <v>353</v>
       </c>
       <c r="D56" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="39.5" customHeight="1">
@@ -3821,22 +4660,22 @@
         <v>155</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>148</v>
+        <v>352</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>368</v>
+        <v>94</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="39.5" customHeight="1">
@@ -3844,22 +4683,22 @@
         <v>156</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>152</v>
+        <v>395</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>150</v>
+        <v>396</v>
       </c>
       <c r="D58" s="5">
         <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="39.5" customHeight="1">
@@ -3867,22 +4706,22 @@
         <v>157</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="D59" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="39.5" customHeight="1">
@@ -3890,22 +4729,22 @@
         <v>158</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D60" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>449</v>
+        <v>102</v>
       </c>
       <c r="F60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="39.5" customHeight="1">
@@ -3913,22 +4752,22 @@
         <v>159</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="D61" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="F61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="39.5" customHeight="1">
@@ -3936,22 +4775,22 @@
         <v>160</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>161</v>
+        <v>354</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="D62" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>450</v>
+        <v>106</v>
       </c>
       <c r="F62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="39.5" customHeight="1">
@@ -3959,22 +4798,22 @@
         <v>161</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="D63" s="5">
         <v>0</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="39.5" customHeight="1">
@@ -3982,22 +4821,22 @@
         <v>162</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>168</v>
+        <v>402</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="D64" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="39.5" customHeight="1">
@@ -4005,22 +4844,22 @@
         <v>163</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="D65" s="5">
         <v>1</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="39.5" customHeight="1">
@@ -4028,22 +4867,22 @@
         <v>164</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="D66" s="5">
         <v>0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="39.5" customHeight="1">
@@ -4051,22 +4890,22 @@
         <v>165</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="D67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="39.5" customHeight="1">
@@ -4074,22 +4913,22 @@
         <v>166</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="F68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="39.5" customHeight="1">
@@ -4097,22 +4936,22 @@
         <v>167</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="39.5" customHeight="1">
@@ -4120,22 +4959,22 @@
         <v>168</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="D70" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="39.5" customHeight="1">
@@ -4143,22 +4982,22 @@
         <v>169</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="D71" s="5">
         <v>0</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="39.5" customHeight="1">
@@ -4166,22 +5005,22 @@
         <v>170</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="D72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="39.5" customHeight="1">
@@ -4189,22 +5028,22 @@
         <v>171</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>195</v>
+        <v>398</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>194</v>
+        <v>399</v>
       </c>
       <c r="D73" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>193</v>
+        <v>397</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="39.5" customHeight="1">
@@ -4212,22 +5051,22 @@
         <v>172</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="D74" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="39.5" customHeight="1">
@@ -4235,22 +5074,22 @@
         <v>173</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>200</v>
+        <v>424</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="D75" s="5">
         <v>1</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="F75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="39.5" customHeight="1">
@@ -4258,22 +5097,22 @@
         <v>174</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="D76" s="5">
         <v>0</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="39.5" customHeight="1">
@@ -4281,22 +5120,22 @@
         <v>175</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="D77" s="5">
         <v>1</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="39.5" customHeight="1">
@@ -4304,22 +5143,22 @@
         <v>176</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="D78" s="5">
         <v>1</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="39.5" customHeight="1">
@@ -4327,22 +5166,22 @@
         <v>177</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="D79" s="5">
         <v>0</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="39.5" customHeight="1">
@@ -4350,22 +5189,22 @@
         <v>178</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="D80" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="39.5" customHeight="1">
@@ -4373,22 +5212,22 @@
         <v>179</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="D81" s="5">
         <v>1</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="F81" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="39.5" customHeight="1">
@@ -4396,22 +5235,22 @@
         <v>180</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="D82" s="5">
         <v>1</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="F82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="39.5" customHeight="1">
@@ -4419,22 +5258,22 @@
         <v>181</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="D83" s="5">
         <v>0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="39.5" customHeight="1">
@@ -4442,22 +5281,22 @@
         <v>182</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>227</v>
+        <v>400</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>226</v>
+        <v>406</v>
       </c>
       <c r="D84" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="F84" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="39.5" customHeight="1">
@@ -4465,22 +5304,19 @@
         <v>183</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="D85" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="39.5" customHeight="1">
@@ -4488,22 +5324,22 @@
         <v>184</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="D86" s="5">
         <v>1</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="39.5" customHeight="1">
@@ -4511,22 +5347,22 @@
         <v>185</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="D87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="F87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="39.5" customHeight="1">
@@ -4534,22 +5370,22 @@
         <v>186</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>239</v>
+        <v>438</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="D88" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="39.5" customHeight="1">
@@ -4557,22 +5393,22 @@
         <v>187</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>240</v>
+        <v>175</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="39.5" customHeight="1">
@@ -4580,22 +5416,22 @@
         <v>188</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D90" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="F90" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="39.5" customHeight="1">
@@ -4603,22 +5439,22 @@
         <v>189</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="D91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="39.5" customHeight="1">
@@ -4626,22 +5462,22 @@
         <v>190</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>511</v>
+        <v>185</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>512</v>
+        <v>184</v>
       </c>
       <c r="D92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="F92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="39.5" customHeight="1">
@@ -4649,22 +5485,22 @@
         <v>191</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="D93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="F93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="39.5" customHeight="1">
@@ -4672,22 +5508,22 @@
         <v>192</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="D94" s="5">
         <v>0</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="39.5" customHeight="1">
@@ -4695,22 +5531,22 @@
         <v>193</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>448</v>
+        <v>194</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="D95" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="39.5" customHeight="1">
@@ -4718,22 +5554,22 @@
         <v>194</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>262</v>
+        <v>436</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>261</v>
+        <v>437</v>
       </c>
       <c r="D96" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="39.5" customHeight="1">
@@ -4741,22 +5577,22 @@
         <v>195</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>264</v>
+        <v>439</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>263</v>
+        <v>440</v>
       </c>
       <c r="D97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="39.5" customHeight="1">
@@ -4764,22 +5600,22 @@
         <v>196</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="39.5" customHeight="1">
@@ -4787,22 +5623,22 @@
         <v>197</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="D99" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="F99" s="5">
         <v>1</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="39.5" customHeight="1">
@@ -4810,22 +5646,22 @@
         <v>198</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>274</v>
+        <v>434</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="D100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="F100" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="39.5" customHeight="1">
@@ -4833,22 +5669,22 @@
         <v>199</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
       <c r="D101" s="5">
         <v>0</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="39.5" customHeight="1">
@@ -4856,22 +5692,22 @@
         <v>200</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="D102" s="5">
         <v>0</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="39.5" customHeight="1">
@@ -4879,22 +5715,22 @@
         <v>201</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="D103" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>438</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="39.5" customHeight="1">
@@ -4902,22 +5738,22 @@
         <v>202</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="D104" s="5">
         <v>1</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="F104" s="5">
         <v>0</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="39.5" customHeight="1">
@@ -4925,22 +5761,22 @@
         <v>203</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="F105" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="39.5" customHeight="1">
@@ -4948,22 +5784,22 @@
         <v>204</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="D106" s="5">
         <v>0</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="39.5" customHeight="1">
@@ -4971,22 +5807,22 @@
         <v>205</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="D107" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="39.5" customHeight="1">
@@ -4994,22 +5830,22 @@
         <v>206</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>297</v>
+        <v>224</v>
       </c>
       <c r="D108" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="39.5" customHeight="1">
@@ -5017,22 +5853,22 @@
         <v>207</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="D109" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="39.5" customHeight="1">
@@ -5040,68 +5876,68 @@
         <v>208</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="D110" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="F110" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="39.5" customHeight="1">
       <c r="A111" s="5">
         <v>209</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>306</v>
+      <c r="B111" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="D111" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="F111" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="39.5" customHeight="1">
       <c r="A112" s="5">
         <v>210</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>309</v>
+      <c r="B112" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="D112" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>438</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="39.5" customHeight="1">
@@ -5109,22 +5945,22 @@
         <v>211</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="D113" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>438</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="39.5" customHeight="1">
@@ -5132,22 +5968,22 @@
         <v>212</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
       <c r="D114" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="39.5" customHeight="1">
@@ -5155,22 +5991,22 @@
         <v>213</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
       <c r="D115" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="39.5" customHeight="1">
@@ -5178,22 +6014,22 @@
         <v>214</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="D116" s="5">
         <v>0</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="39.5" customHeight="1">
@@ -5201,22 +6037,22 @@
         <v>215</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="D117" s="5">
         <v>0</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="F117" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="39.5" customHeight="1">
@@ -5224,22 +6060,22 @@
         <v>216</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>327</v>
+        <v>252</v>
       </c>
       <c r="D118" s="5">
         <v>0</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="39.5" customHeight="1">
@@ -5247,22 +6083,22 @@
         <v>217</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D119" s="5">
         <v>0</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="39.5" customHeight="1">
@@ -5270,22 +6106,22 @@
         <v>218</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="D120" s="5">
         <v>0</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="39.5" customHeight="1">
@@ -5293,22 +6129,22 @@
         <v>219</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D121" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>510</v>
+        <v>269</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>439</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="39.5" customHeight="1">
@@ -5316,22 +6152,22 @@
         <v>220</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
       <c r="D122" s="5">
         <v>1</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>339</v>
+        <v>265</v>
       </c>
       <c r="F122" s="5">
         <v>0</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="39.5" customHeight="1">
@@ -5339,22 +6175,22 @@
         <v>221</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>342</v>
+        <v>259</v>
       </c>
       <c r="D123" s="5">
         <v>1</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="39.5" customHeight="1">
@@ -5362,22 +6198,22 @@
         <v>222</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="D124" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>344</v>
+        <v>271</v>
       </c>
       <c r="F124" s="5">
         <v>0</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="39.5" customHeight="1">
@@ -5385,22 +6221,22 @@
         <v>223</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>349</v>
+        <v>263</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="D125" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="F125" s="5">
         <v>0</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="39.5" customHeight="1">
@@ -5408,22 +6244,22 @@
         <v>224</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="D126" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="F126" s="5">
         <v>0</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="39.5" customHeight="1">
@@ -5431,22 +6267,22 @@
         <v>225</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
       <c r="D127" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>494</v>
+        <v>276</v>
       </c>
       <c r="F127" s="5">
         <v>0</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="39.5" customHeight="1">
@@ -5454,68 +6290,68 @@
         <v>226</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="D128" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="F128" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="39.5" customHeight="1">
       <c r="A129" s="5">
         <v>227</v>
       </c>
-      <c r="B129" s="6" t="s">
-        <v>359</v>
+      <c r="B129" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="D129" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="F129" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>438</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="39.5" customHeight="1">
       <c r="A130" s="5">
         <v>228</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>361</v>
+      <c r="B130" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="D130" s="5">
         <v>1</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="F130" s="5">
         <v>0</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>439</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="39.5" customHeight="1">
@@ -5523,22 +6359,22 @@
         <v>229</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="D131" s="5">
         <v>2</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="F131" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>439</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="39.5" customHeight="1">
@@ -5546,22 +6382,22 @@
         <v>230</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="D132" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="F132" s="5">
         <v>0</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>438</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="39.5" customHeight="1">
@@ -5569,22 +6405,22 @@
         <v>231</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="D133" s="5">
         <v>0</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="F133" s="5">
         <v>0</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="39.5" customHeight="1">
@@ -5592,22 +6428,22 @@
         <v>232</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="D134" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>438</v>
+        <v>291</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="39.5" customHeight="1">
@@ -5615,762 +6451,3045 @@
         <v>233</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="D135" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="F135" s="5">
         <v>0</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="39.5" customHeight="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="5">
         <v>234</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>382</v>
+        <v>317</v>
       </c>
       <c r="D136" s="5">
         <v>0</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="F136" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="39.5" customHeight="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="5">
         <v>235</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="D137" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>402</v>
+        <v>320</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="5">
         <v>236</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="D138" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>403</v>
+        <v>727</v>
       </c>
       <c r="F138" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="5">
         <v>237</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="D139" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>404</v>
+        <v>728</v>
       </c>
       <c r="F139" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="5">
         <v>238</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="D140" s="5">
         <v>1</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>400</v>
+        <v>729</v>
       </c>
       <c r="F140" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="5">
         <v>239</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="D141" s="5">
         <v>1</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>405</v>
+        <v>730</v>
       </c>
       <c r="F141" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="5">
         <v>240</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="D142" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>406</v>
+        <v>731</v>
       </c>
       <c r="F142" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="5">
         <v>241</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="D143" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>407</v>
+        <v>732</v>
       </c>
       <c r="F143" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="5">
         <v>242</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="D144" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>408</v>
+        <v>733</v>
       </c>
       <c r="F144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="5">
         <v>243</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="D145" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>411</v>
+        <v>734</v>
       </c>
       <c r="F145" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="5">
         <v>244</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="D146" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>434</v>
+        <v>735</v>
       </c>
       <c r="F146" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="5">
         <v>245</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
       <c r="D147" s="5">
         <v>0</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>441</v>
+        <v>736</v>
       </c>
       <c r="F147" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="5">
         <v>246</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="D148" s="5">
         <v>1</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>442</v>
+        <v>737</v>
       </c>
       <c r="F148" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="5">
         <v>247</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="D149" s="5">
         <v>2</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>466</v>
+        <v>738</v>
       </c>
       <c r="F149" s="5">
         <v>1</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="5">
         <v>248</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>459</v>
+        <v>366</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="D150" s="5">
         <v>3</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>464</v>
+        <v>738</v>
       </c>
       <c r="F150" s="5">
         <v>1</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="39.5" customHeight="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="5">
         <v>249</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>452</v>
+        <v>367</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="D151" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>451</v>
+        <v>719</v>
       </c>
       <c r="F151" s="5">
         <v>1</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="39.5" customHeight="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="5">
         <v>250</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>487</v>
+        <v>368</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="D152" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>454</v>
+        <v>720</v>
       </c>
       <c r="F152" s="5">
         <v>1</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="39.5" customHeight="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="5">
         <v>251</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>456</v>
+        <v>369</v>
       </c>
       <c r="D153" s="5">
         <v>2</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>457</v>
+        <v>747</v>
       </c>
       <c r="F153" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="5">
         <v>252</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>462</v>
+        <v>370</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="D154" s="5">
         <v>2</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>460</v>
+        <v>751</v>
       </c>
       <c r="F154" s="5">
         <v>0</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="5">
         <v>253</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>469</v>
+        <v>372</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="D155" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>471</v>
+        <v>752</v>
       </c>
       <c r="F155" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="5">
         <v>254</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>474</v>
+        <v>373</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>472</v>
+        <v>375</v>
       </c>
       <c r="D156" s="5">
         <v>2</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>476</v>
+        <v>753</v>
       </c>
       <c r="F156" s="5">
         <v>1</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="5">
         <v>255</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>473</v>
+        <v>376</v>
       </c>
       <c r="D157" s="5">
         <v>3</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>477</v>
+        <v>754</v>
       </c>
       <c r="F157" s="5">
         <v>1</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="5">
         <v>256</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>480</v>
+        <v>391</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="D158" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>478</v>
+        <v>755</v>
       </c>
       <c r="F158" s="5">
         <v>1</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="5">
         <v>257</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>483</v>
+        <v>756</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>481</v>
+        <v>405</v>
       </c>
       <c r="D159" s="5">
         <v>0</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>482</v>
+        <v>757</v>
       </c>
       <c r="F159" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="5">
         <v>258</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>484</v>
+        <v>404</v>
       </c>
       <c r="D160" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>486</v>
+        <v>758</v>
       </c>
       <c r="F160" s="5">
         <v>0</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="39.5" customHeight="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="5">
         <v>259</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>488</v>
+        <v>355</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>489</v>
+        <v>759</v>
       </c>
       <c r="D161" s="5">
         <v>2</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>490</v>
+        <v>760</v>
       </c>
       <c r="F161" s="5">
         <v>1</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="39.5" customHeight="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="5">
         <v>260</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="D162" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>493</v>
+        <v>761</v>
       </c>
       <c r="F162" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="39.5" customHeight="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="5">
         <v>261</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>497</v>
+        <v>419</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="D163" s="5">
         <v>2</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>496</v>
+        <v>805</v>
       </c>
       <c r="F163" s="5">
         <v>0</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="5">
         <v>262</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>498</v>
+        <v>409</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>500</v>
+        <v>458</v>
       </c>
       <c r="D164" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>499</v>
+        <v>800</v>
       </c>
       <c r="F164" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="5">
         <v>263</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>503</v>
+        <v>410</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>502</v>
+        <v>411</v>
       </c>
       <c r="D165" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>501</v>
+        <v>762</v>
       </c>
       <c r="F165" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="39.5" customHeight="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="5">
         <v>264</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>505</v>
+        <v>412</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="D166" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>506</v>
+        <v>763</v>
       </c>
       <c r="F166" s="5">
         <v>0</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="39.5" customHeight="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="5">
         <v>265</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>507</v>
+        <v>414</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>508</v>
+        <v>415</v>
       </c>
       <c r="D167" s="5">
+        <v>1</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F167" s="5">
+        <v>0</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="5">
+        <v>266</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D168" s="5">
         <v>2</v>
       </c>
-      <c r="E167" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="F167" s="5">
-        <v>0</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="39.5" customHeight="1">
-      <c r="E168" s="5"/>
+      <c r="E168" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F168" s="5">
+        <v>1</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="5">
+        <v>267</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="D169" s="5">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="5">
+        <v>268</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D170" s="5">
+        <v>2</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="F170" s="5">
+        <v>1</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="5">
+        <v>269</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D171" s="5">
+        <v>1</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F171" s="5">
+        <v>1</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="5">
+        <v>270</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D172" s="5">
+        <v>3</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="5">
+        <v>271</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D173" s="5">
+        <v>2</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F173" s="5">
+        <v>1</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="5">
+        <v>272</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D174" s="5">
+        <v>3</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="5">
+        <v>273</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D175" s="5">
+        <v>3</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="5">
+        <v>274</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D176" s="5">
+        <v>1</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="F176" s="5">
+        <v>1</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="5">
+        <v>275</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D177" s="5">
+        <v>2</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="F177" s="5">
+        <v>0</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="5">
+        <v>276</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D178" s="5">
+        <v>3</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F178" s="5">
+        <v>0</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="5">
+        <v>277</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D179" s="5">
+        <v>3</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="F179" s="5">
+        <v>1</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="5">
+        <v>278</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D180" s="5">
+        <v>0</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="F180" s="5">
+        <v>0</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="5">
+        <v>279</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D181" s="5">
+        <v>0</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F181" s="5">
+        <v>0</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="5">
+        <v>280</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D182" s="5">
+        <v>3</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F182" s="5">
+        <v>1</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="5">
+        <v>281</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D183" s="5">
+        <v>2</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="F183" s="5">
+        <v>0</v>
+      </c>
+      <c r="G183" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="23">
+      <c r="A184" s="5">
+        <v>282</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D184" s="5">
+        <v>3</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F184" s="5">
+        <v>1</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="23">
+      <c r="A185" s="5">
+        <v>283</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D185" s="5">
+        <v>3</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="F185" s="5">
+        <v>1</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="23">
+      <c r="A186" s="5">
+        <v>284</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D186" s="5">
+        <v>3</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F186" s="5">
+        <v>1</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="23">
+      <c r="A187" s="5">
+        <v>285</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D187" s="5">
+        <v>3</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F187" s="5">
+        <v>1</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="23">
+      <c r="A188" s="5">
+        <v>286</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D188" s="5">
+        <v>3</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="F188" s="5">
+        <v>1</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="23">
+      <c r="A189" s="5">
+        <v>287</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D189" s="5">
+        <v>3</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F189" s="5">
+        <v>1</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="23">
+      <c r="A190" s="5">
+        <v>288</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D190" s="5">
+        <v>3</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F190" s="5">
+        <v>1</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="23">
+      <c r="A191" s="5">
+        <v>289</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D191" s="5">
+        <v>3</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="F191" s="5">
+        <v>1</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="23">
+      <c r="A192" s="5">
+        <v>290</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D192" s="5">
+        <v>3</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F192" s="5">
+        <v>1</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="23">
+      <c r="A193" s="5">
+        <v>291</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D193" s="5">
+        <v>3</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F193" s="5">
+        <v>1</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="23">
+      <c r="A194" s="5">
+        <v>292</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D194" s="5">
+        <v>3</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F194" s="5">
+        <v>1</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="23">
+      <c r="A195" s="5">
+        <v>293</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D195" s="5">
+        <v>3</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="F195" s="5">
+        <v>1</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="23">
+      <c r="A196" s="5">
+        <v>294</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D196" s="5">
+        <v>3</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="F196" s="5">
+        <v>1</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="23">
+      <c r="A197" s="5">
+        <v>295</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D197" s="5">
+        <v>3</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F197" s="5">
+        <v>1</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="23">
+      <c r="A198" s="5">
+        <v>296</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D198" s="5">
+        <v>3</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F198" s="5">
+        <v>1</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="23">
+      <c r="A199" s="5">
+        <v>297</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D199" s="5">
+        <v>3</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F199" s="5">
+        <v>1</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="23">
+      <c r="A200" s="5">
+        <v>298</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D200" s="5">
+        <v>3</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F200" s="5">
+        <v>1</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="5">
+        <v>299</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D201" s="5">
+        <v>2</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="F201" s="5">
+        <v>0</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="5">
+        <v>300</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D202" s="5">
+        <v>0</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="F202" s="5">
+        <v>0</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="5">
+        <v>301</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D203" s="5">
+        <v>2</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="F203" s="5">
+        <v>0</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="5">
+        <v>302</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D204" s="5">
+        <v>2</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="F204" s="5">
+        <v>0</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="5">
+        <v>303</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D205" s="5">
+        <v>3</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="F205" s="5">
+        <v>0</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="5">
+        <v>304</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D206" s="5">
+        <v>3</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F206" s="5">
+        <v>0</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="5">
+        <v>305</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D207" s="5">
+        <v>3</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="F207" s="5">
+        <v>0</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="5">
+        <v>306</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D208" s="5">
+        <v>3</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="F208" s="5">
+        <v>0</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="5">
+        <v>307</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="D209" s="5">
+        <v>3</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F209" s="5">
+        <v>0</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="5">
+        <v>308</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D210" s="5">
+        <v>3</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="F210" s="5">
+        <v>0</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="5">
+        <v>309</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D211" s="5">
+        <v>3</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F211" s="5">
+        <v>0</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="5">
+        <v>310</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D212" s="5">
+        <v>3</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F212" s="5">
+        <v>0</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="5">
+        <v>311</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D213" s="5">
+        <v>3</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="F213" s="5">
+        <v>0</v>
+      </c>
+      <c r="G213" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="5">
+        <v>312</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D214" s="5">
+        <v>1</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="F214" s="5">
+        <v>1</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="5">
+        <v>313</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D215" s="5">
+        <v>2</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="F215" s="5">
+        <v>1</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="5">
+        <v>314</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D216" s="5">
+        <v>1</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="F216" s="11">
+        <v>0</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="5">
+        <v>315</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="D217" s="5">
+        <v>1</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F217" s="11">
+        <v>0</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="5">
+        <v>316</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D218" s="5">
+        <v>2</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="F218" s="11">
+        <v>0</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="23">
+      <c r="A219" s="5">
+        <v>317</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="D219" s="5">
+        <v>1</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="F219" s="5">
+        <v>0</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="23">
+      <c r="A220" s="5">
+        <v>318</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="D220" s="5">
+        <v>1</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F220" s="5">
+        <v>0</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="23">
+      <c r="A221" s="5">
+        <v>319</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="D221" s="5">
+        <v>1</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F221" s="5">
+        <v>0</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="23">
+      <c r="A222" s="5">
+        <v>320</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="D222" s="5">
+        <v>1</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F222" s="5">
+        <v>0</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="23">
+      <c r="A223" s="5">
+        <v>321</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D223" s="5">
+        <v>1</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="F223" s="5">
+        <v>0</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="23">
+      <c r="A224" s="5">
+        <v>322</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D224" s="5">
+        <v>1</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F224" s="5">
+        <v>0</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="23">
+      <c r="A225" s="5">
+        <v>323</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="D225" s="5">
+        <v>1</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F225" s="5">
+        <v>0</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="23">
+      <c r="A226" s="5">
+        <v>324</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="D226" s="5">
+        <v>1</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="F226" s="5">
+        <v>0</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="23">
+      <c r="A227" s="5">
+        <v>325</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="D227" s="5">
+        <v>1</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F227" s="5">
+        <v>0</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="23">
+      <c r="A228" s="5">
+        <v>326</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="D228" s="5">
+        <v>1</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F228" s="5">
+        <v>0</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="23">
+      <c r="A229" s="5">
+        <v>327</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D229" s="5">
+        <v>1</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F229" s="5">
+        <v>0</v>
+      </c>
+      <c r="G229" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="23">
+      <c r="A230" s="5">
+        <v>328</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="D230" s="5">
+        <v>1</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F230" s="5">
+        <v>0</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="23">
+      <c r="A231" s="5">
+        <v>329</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D231" s="5">
+        <v>1</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F231" s="5">
+        <v>0</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="23">
+      <c r="A232" s="5">
+        <v>330</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="D232" s="5">
+        <v>1</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F232" s="5">
+        <v>0</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="23">
+      <c r="A233" s="5">
+        <v>331</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D233" s="5">
+        <v>1</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F233" s="5">
+        <v>0</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="23">
+      <c r="A234" s="5">
+        <v>332</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D234" s="5">
+        <v>1</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="F234" s="5">
+        <v>0</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="23">
+      <c r="A235" s="5">
+        <v>333</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="D235" s="5">
+        <v>1</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F235" s="5">
+        <v>0</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="23">
+      <c r="A236" s="5">
+        <v>334</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="D236" s="5">
+        <v>1</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="F236" s="5">
+        <v>0</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="23">
+      <c r="A237" s="5">
+        <v>335</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D237" s="5">
+        <v>1</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F237" s="5">
+        <v>0</v>
+      </c>
+      <c r="G237" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="23">
+      <c r="A238" s="5">
+        <v>336</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D238" s="5">
+        <v>1</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F238" s="5">
+        <v>0</v>
+      </c>
+      <c r="G238" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="23">
+      <c r="A239" s="5">
+        <v>337</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D239" s="5">
+        <v>1</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F239" s="5">
+        <v>0</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="23">
+      <c r="A240" s="5">
+        <v>338</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="D240" s="5">
+        <v>1</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="F240" s="5">
+        <v>0</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="23">
+      <c r="A241" s="5">
+        <v>339</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="D241" s="5">
+        <v>1</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F241" s="5">
+        <v>0</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="23">
+      <c r="A242" s="5">
+        <v>340</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="D242" s="5">
+        <v>1</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F242" s="5">
+        <v>0</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="23">
+      <c r="A243" s="5">
+        <v>341</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D243" s="5">
+        <v>1</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="F243" s="5">
+        <v>0</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="23">
+      <c r="A244" s="5">
+        <v>342</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="D244" s="5">
+        <v>1</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F244" s="5">
+        <v>0</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="23">
+      <c r="A245" s="5">
+        <v>343</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="D245" s="5">
+        <v>1</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F245" s="5">
+        <v>0</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="23">
+      <c r="A246" s="5">
+        <v>344</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="D246" s="5">
+        <v>1</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F246" s="5">
+        <v>0</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="23">
+      <c r="A247" s="5">
+        <v>345</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="D247" s="5">
+        <v>1</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F247" s="5">
+        <v>0</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="23">
+      <c r="A248" s="5">
+        <v>346</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D248" s="5">
+        <v>1</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F248" s="5">
+        <v>0</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="23">
+      <c r="A249" s="5">
+        <v>347</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D249" s="5">
+        <v>1</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F249" s="5">
+        <v>0</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="23">
+      <c r="A250" s="5">
+        <v>348</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="D250" s="5">
+        <v>1</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F250" s="5">
+        <v>0</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="23">
+      <c r="A251" s="5">
+        <v>349</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="D251" s="5">
+        <v>1</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F251" s="5">
+        <v>0</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="23">
+      <c r="A252" s="5">
+        <v>350</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="D252" s="5">
+        <v>1</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F252" s="5">
+        <v>0</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="23">
+      <c r="A253" s="5">
+        <v>351</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="D253" s="5">
+        <v>1</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F253" s="5">
+        <v>0</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="23">
+      <c r="A254" s="5">
+        <v>352</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="D254" s="5">
+        <v>1</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F254" s="5">
+        <v>0</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="5">
+        <v>353</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D255" s="5">
+        <v>2</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="F255" s="5">
+        <v>0</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="5">
+        <v>354</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D256" s="5">
+        <v>1</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F256" s="5">
+        <v>0</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="5">
+        <v>355</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D257" s="5">
+        <v>3</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F257" s="5">
+        <v>1</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="5">
+        <v>356</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D258" s="5">
+        <v>3</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F258" s="5">
+        <v>0</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="5">
+        <v>357</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D259" s="5">
+        <v>3</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F259" s="5">
+        <v>0</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="5">
+        <v>358</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="D260" s="5">
+        <v>3</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F260" s="5">
+        <v>1</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="5">
+        <v>359</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D261" s="5">
+        <v>3</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="F261" s="5">
+        <v>1</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="5">
+        <v>360</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="D262" s="5">
+        <v>1</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F262" s="5">
+        <v>0</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="5">
+        <v>361</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="D263" s="5">
+        <v>3</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F263" s="5">
+        <v>1</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="5">
+        <v>362</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="D264" s="5">
+        <v>2</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F264" s="5">
+        <v>1</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="5">
+        <v>363</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D265" s="5">
+        <v>3</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="F265" s="5">
+        <v>1</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="5">
+        <v>364</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D266" s="5">
+        <v>3</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F266" s="5">
+        <v>1</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5">
+      <c r="E280" s="5"/>
+    </row>
+    <row r="281" spans="5:5">
+      <c r="E281" s="5"/>
+    </row>
+    <row r="282" spans="5:5">
+      <c r="E282" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
